--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="193">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,550 +49,544 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>awful</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>thin</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>unfortunately</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>boring</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>rip</t>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>fell</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>seem</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>light</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>return</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>box</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>bigger</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>1</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>put</t>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>looks</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>think</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>toy</t>
+    <t>got</t>
   </si>
   <si>
     <t>still</t>
   </si>
   <si>
+    <t>set</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>got</t>
+    <t>really</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>challenging</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>grandson</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>played</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>enjoys</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>lego</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>granddaughter</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>played</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>son</t>
   </si>
   <si>
     <t>year</t>
@@ -956,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q129"/>
+  <dimension ref="A1:Q130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,10 +958,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1046,16 +1040,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K3">
-        <v>0.8923076923076924</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1067,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1096,16 +1090,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1117,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1146,16 +1140,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1167,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1175,13 +1169,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1193,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K6">
-        <v>0.8387096774193549</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1217,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1225,13 +1219,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8309859154929577</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1243,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K7">
-        <v>0.828125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L7">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1267,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1275,13 +1269,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.828125</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1293,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1317,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1325,13 +1319,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8095238095238095</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1343,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K9">
-        <v>0.7916666666666666</v>
+        <v>0.765625</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1367,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1375,13 +1369,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1393,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K10">
-        <v>0.660377358490566</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1417,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1425,13 +1419,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7777777777777778</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1443,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K11">
-        <v>0.6312769010043041</v>
+        <v>0.6197991391678622</v>
       </c>
       <c r="L11">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M11">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1467,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1475,13 +1469,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7727272727272727</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1493,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K12">
-        <v>0.5850622406639004</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L12">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1517,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>200</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1525,13 +1519,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.76</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1546,16 +1540,16 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K13">
-        <v>0.5652173913043478</v>
+        <v>0.5767634854771784</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1567,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1575,13 +1569,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7586206896551724</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1593,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K14">
-        <v>0.5426229508196722</v>
+        <v>0.5422477440525021</v>
       </c>
       <c r="L14">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M14">
         <v>662</v>
@@ -1614,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>558</v>
@@ -1625,13 +1619,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7473118279569892</v>
+        <v>0.6875</v>
       </c>
       <c r="C15">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1643,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K15">
         <v>0.4905660377358491</v>
@@ -1675,13 +1669,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7368421052631579</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1693,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K16">
-        <v>0.4759036144578313</v>
+        <v>0.4434250764525994</v>
       </c>
       <c r="L16">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="M16">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1717,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>87</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1746,16 +1740,16 @@
         <v>69</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K17">
-        <v>0.4603174603174603</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L17">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M17">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1767,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1775,13 +1769,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6486486486486487</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C18">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1793,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K18">
-        <v>0.4403669724770642</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="L18">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="M18">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1817,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1825,7 +1819,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6363636363636364</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C19">
         <v>35</v>
@@ -1843,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K19">
-        <v>0.3916666666666667</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1867,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1875,13 +1869,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6111111111111112</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1893,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20">
-        <v>0.3617021276595745</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1917,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1925,13 +1919,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6041666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1943,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K21">
-        <v>0.3454545454545455</v>
+        <v>0.34</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1967,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1975,13 +1969,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1993,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22">
-        <v>0.34</v>
+        <v>0.3125</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2017,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2046,16 +2040,16 @@
         <v>48</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K23">
-        <v>0.3286713286713286</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L23">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2067,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2096,28 +2090,28 @@
         <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K24">
-        <v>0.328125</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2125,13 +2119,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5903614457831325</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="D25">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2140,22 +2134,22 @@
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K25">
-        <v>0.3220338983050847</v>
+        <v>0.2890625</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2167,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2175,13 +2169,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5714285714285714</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2193,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K26">
-        <v>0.3203125</v>
+        <v>0.285140562248996</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2217,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>87</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2225,13 +2219,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5555555555555556</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2243,19 +2237,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K27">
-        <v>0.3064516129032258</v>
+        <v>0.28</v>
       </c>
       <c r="L27">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2267,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2296,16 +2290,16 @@
         <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K28">
-        <v>0.2873563218390804</v>
+        <v>0.2795698924731183</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2317,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>62</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2325,13 +2319,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5478260869565217</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C29">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2343,19 +2337,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K29">
-        <v>0.2786885245901639</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2367,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2375,37 +2369,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5333333333333333</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C30">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>16</v>
       </c>
-      <c r="D30">
-        <v>16</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>14</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K30">
-        <v>0.2777777777777778</v>
+        <v>0.264367816091954</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2417,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2425,13 +2419,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5308056872037915</v>
+        <v>0.5354330708661418</v>
       </c>
       <c r="C31">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D31">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2443,19 +2437,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K31">
-        <v>0.25</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L31">
+        <v>18</v>
+      </c>
+      <c r="M31">
         <v>19</v>
-      </c>
-      <c r="M31">
-        <v>20</v>
       </c>
       <c r="N31">
         <v>0.95</v>
@@ -2467,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2475,13 +2469,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5272727272727272</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2493,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K32">
-        <v>0.248</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2525,13 +2519,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5263157894736842</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2543,19 +2537,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K33">
-        <v>0.2409638554216867</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2567,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>189</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2575,13 +2569,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2593,31 +2587,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K34">
-        <v>0.2307692307692308</v>
+        <v>0.2372583479789104</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>90</v>
+        <v>868</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2625,13 +2619,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5111111111111111</v>
+        <v>0.4928909952606635</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2643,19 +2637,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K35">
-        <v>0.2219298245614035</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="L35">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2664,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>887</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2675,13 +2669,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5079365079365079</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2693,31 +2687,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K36">
-        <v>0.2173913043478261</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2725,13 +2719,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5039370078740157</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2743,31 +2737,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K37">
-        <v>0.1847826086956522</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2775,13 +2769,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2793,31 +2787,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K38">
-        <v>0.1835443037974684</v>
+        <v>0.1753246753246753</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N38">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2825,13 +2819,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5</v>
+        <v>0.46875</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2843,31 +2837,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K39">
-        <v>0.1753246753246753</v>
+        <v>0.170391061452514</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>127</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2875,13 +2869,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4883720930232558</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2893,31 +2887,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K40">
-        <v>0.1739130434782609</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="N40">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="O40">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>95</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2925,13 +2919,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4842105263157895</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="C41">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2943,19 +2937,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K41">
-        <v>0.1653645833333333</v>
+        <v>0.1536458333333333</v>
       </c>
       <c r="L41">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="M41">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="N41">
         <v>0.98</v>
@@ -2967,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>1282</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2975,13 +2969,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.46875</v>
+        <v>0.4453125</v>
       </c>
       <c r="C42">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D42">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2993,31 +2987,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K42">
-        <v>0.160857908847185</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="L42">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N42">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O42">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>313</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3025,13 +3019,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4655172413793103</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3043,31 +3037,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K43">
-        <v>0.1515151515151515</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>84</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3075,13 +3069,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.45</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3093,31 +3087,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K44">
-        <v>0.1480446927374302</v>
+        <v>0.109717868338558</v>
       </c>
       <c r="L44">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="M44">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3125,13 +3119,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4473684210526316</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3143,31 +3137,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K45">
-        <v>0.1208053691275168</v>
+        <v>0.1010452961672474</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N45">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="O45">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>131</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3175,13 +3169,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4382022471910113</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C46">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3193,31 +3187,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K46">
-        <v>0.1137254901960784</v>
+        <v>0.09746328437917223</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="M46">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>226</v>
+        <v>676</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3225,13 +3219,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.421875</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D47">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3243,31 +3237,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K47">
-        <v>0.1096774193548387</v>
+        <v>0.09032258064516129</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N47">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O47">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3275,13 +3269,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.417910447761194</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3293,31 +3287,31 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K48">
-        <v>0.101010101010101</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N48">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="O48">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3325,13 +3319,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4166666666666667</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3343,31 +3337,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K49">
-        <v>0.1005361930294906</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="L49">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="M49">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0.32</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>671</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3375,13 +3369,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4146341463414634</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3393,31 +3387,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K50">
-        <v>0.09937888198757763</v>
+        <v>0.0664451827242525</v>
       </c>
       <c r="L50">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3425,13 +3419,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.405940594059406</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C51">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3443,31 +3437,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K51">
-        <v>0.0989010989010989</v>
+        <v>0.06545454545454546</v>
       </c>
       <c r="L51">
         <v>18</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N51">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="O51">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>164</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3475,13 +3469,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3902439024390244</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3493,31 +3487,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K52">
-        <v>0.09057971014492754</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N52">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>251</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3525,13 +3519,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3877551020408163</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3543,31 +3537,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K53">
-        <v>0.08595988538681948</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0.18</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>319</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3575,13 +3569,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3809523809523809</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3593,31 +3587,31 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K54">
-        <v>0.0851063829787234</v>
+        <v>0.05437352245862884</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>215</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3625,13 +3619,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3770491803278688</v>
+        <v>0.3514851485148515</v>
       </c>
       <c r="C55">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D55">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3643,31 +3637,31 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K55">
-        <v>0.07958477508650519</v>
+        <v>0.05247813411078717</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N55">
-        <v>0.96</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O55">
-        <v>0.04000000000000004</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>266</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3675,13 +3669,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3768115942028986</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3693,31 +3687,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K56">
-        <v>0.07130124777183601</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="L56">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N56">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O56">
-        <v>0.08999999999999997</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>521</v>
+        <v>663</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3725,49 +3719,49 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3703703703703703</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K57">
-        <v>0.07046979865771812</v>
+        <v>0.048582995951417</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M57">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N57">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="O57">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>277</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3775,13 +3769,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3571428571428572</v>
+        <v>0.325</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D58">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3793,31 +3787,31 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="K58">
-        <v>0.06493506493506493</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N58">
-        <v>0.6899999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="O58">
-        <v>0.3100000000000001</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>360</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3825,13 +3819,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3392857142857143</v>
+        <v>0.3188405797101449</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3843,31 +3837,31 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K59">
-        <v>0.0625</v>
+        <v>0.02976190476190476</v>
       </c>
       <c r="L59">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M59">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N59">
-        <v>0.72</v>
+        <v>0.5</v>
       </c>
       <c r="O59">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3875,13 +3869,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3387096774193548</v>
+        <v>0.3144329896907216</v>
       </c>
       <c r="C60">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D60">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3893,31 +3887,31 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="K60">
-        <v>0.05868544600938967</v>
+        <v>0.02465753424657534</v>
       </c>
       <c r="L60">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M60">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="N60">
+        <v>0.22</v>
+      </c>
+      <c r="O60">
         <v>0.78</v>
       </c>
-      <c r="O60">
-        <v>0.22</v>
-      </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>401</v>
+        <v>712</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3925,49 +3919,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3272727272727273</v>
+        <v>0.3125</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F61">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>37</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K61">
-        <v>0.05476673427991886</v>
-      </c>
-      <c r="L61">
-        <v>27</v>
-      </c>
-      <c r="M61">
-        <v>34</v>
-      </c>
-      <c r="N61">
-        <v>0.79</v>
-      </c>
-      <c r="O61">
-        <v>0.21</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>466</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3975,13 +3945,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3061224489795918</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3993,31 +3963,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>34</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K62">
-        <v>0.0425531914893617</v>
-      </c>
-      <c r="L62">
-        <v>18</v>
-      </c>
-      <c r="M62">
-        <v>42</v>
-      </c>
-      <c r="N62">
-        <v>0.43</v>
-      </c>
-      <c r="O62">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>405</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4025,13 +3971,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2911392405063291</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C63">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="D63">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4043,31 +3989,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>224</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K63">
-        <v>0.03288490284005979</v>
-      </c>
-      <c r="L63">
-        <v>22</v>
-      </c>
-      <c r="M63">
-        <v>45</v>
-      </c>
-      <c r="N63">
-        <v>0.49</v>
-      </c>
-      <c r="O63">
-        <v>0.51</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>647</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4075,13 +3997,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.285</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C64">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D64">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4093,31 +4015,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>143</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K64">
-        <v>0.03207810320781032</v>
-      </c>
-      <c r="L64">
-        <v>23</v>
-      </c>
-      <c r="M64">
-        <v>100</v>
-      </c>
-      <c r="N64">
-        <v>0.23</v>
-      </c>
-      <c r="O64">
-        <v>0.77</v>
-      </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>694</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4125,13 +4023,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2837837837837838</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4143,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4151,13 +4049,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2735042735042735</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C66">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4169,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4177,13 +4075,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2717391304347826</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="C67">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D67">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4195,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>201</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4203,25 +4101,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2680412371134021</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C68">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>142</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4229,25 +4127,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2567567567567567</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C69">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D69">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4255,25 +4153,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2523364485981308</v>
+        <v>0.2837837837837838</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E70">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4281,13 +4179,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.25</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4299,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4307,25 +4205,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2446043165467626</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C72">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E72">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>105</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4333,25 +4231,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2432432432432433</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D73">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4359,25 +4257,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2412698412698413</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C74">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D74">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E74">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>239</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4385,25 +4283,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.24</v>
+        <v>0.2582159624413146</v>
       </c>
       <c r="C75">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>57</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4411,25 +4309,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2371134020618557</v>
+        <v>0.2570579494799405</v>
       </c>
       <c r="C76">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="D76">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>74</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4437,25 +4335,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2334293948126801</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="C77">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D77">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E77">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4463,25 +4361,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.2328042328042328</v>
+        <v>0.25</v>
       </c>
       <c r="C78">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E78">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>145</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4489,25 +4387,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.2324888226527571</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C79">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="D79">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="E79">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F79">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>515</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4515,25 +4413,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2307692307692308</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="C80">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D80">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>60</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4541,13 +4439,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2289719626168224</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C81">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D81">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4559,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>165</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4567,25 +4465,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2268041237113402</v>
+        <v>0.2429906542056075</v>
       </c>
       <c r="C82">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4593,13 +4491,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.2253521126760563</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4611,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4619,25 +4517,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.2142857142857143</v>
+        <v>0.2363112391930836</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>66</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4645,13 +4543,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2087912087912088</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C85">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4663,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4671,13 +4569,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.2027027027027027</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C86">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4689,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4697,13 +4595,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.2</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C87">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D87">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4715,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4723,25 +4621,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1987179487179487</v>
+        <v>0.2240437158469945</v>
       </c>
       <c r="C88">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D88">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E88">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4749,25 +4647,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.188034188034188</v>
+        <v>0.2057522123893805</v>
       </c>
       <c r="C89">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="D89">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="E89">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F89">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>95</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4775,25 +4673,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1822916666666667</v>
+        <v>0.2052631578947368</v>
       </c>
       <c r="C90">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D90">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4801,25 +4699,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1814159292035398</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="C91">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D91">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="E91">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>370</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4827,25 +4725,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1810699588477366</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C92">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D92">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E92">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>199</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4853,25 +4751,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.180327868852459</v>
+        <v>0.1856287425149701</v>
       </c>
       <c r="C93">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D93">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4879,25 +4777,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1746031746031746</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C94">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D94">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E94">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4905,25 +4803,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1692307692307692</v>
+        <v>0.17</v>
       </c>
       <c r="C95">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D95">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4931,25 +4829,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1688311688311688</v>
+        <v>0.1684782608695652</v>
       </c>
       <c r="C96">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D96">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4957,25 +4855,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1679389312977099</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C97">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D97">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4983,25 +4881,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1671388101983003</v>
+        <v>0.1616541353383459</v>
       </c>
       <c r="C98">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D98">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E98">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F98">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>294</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5009,25 +4907,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1639344262295082</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C99">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E99">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="F99">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>153</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5035,25 +4933,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1628787878787879</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="C100">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D100">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E100">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F100">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5061,13 +4959,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1612903225806452</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="C101">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E101">
         <v>0.06</v>
@@ -5079,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5087,25 +4985,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1602209944751381</v>
+        <v>0.1528925619834711</v>
       </c>
       <c r="C102">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D102">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E102">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="F102">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>304</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5113,25 +5011,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1559633027522936</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="C103">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D103">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>92</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5139,25 +5037,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1515151515151515</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="C104">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D104">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E104">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F104">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>84</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5165,25 +5063,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1509433962264151</v>
+        <v>0.1432506887052342</v>
       </c>
       <c r="C105">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D105">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E105">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F105">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>135</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5191,25 +5089,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1419354838709677</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C106">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D106">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E106">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F106">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>133</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5217,25 +5115,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1398963730569948</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C107">
+        <v>26</v>
+      </c>
+      <c r="D107">
         <v>27</v>
       </c>
-      <c r="D107">
-        <v>30</v>
-      </c>
       <c r="E107">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F107">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5243,25 +5141,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.131578947368421</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="C108">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D108">
         <v>18</v>
       </c>
       <c r="E108">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5269,25 +5167,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1301775147928994</v>
+        <v>0.1305732484076433</v>
       </c>
       <c r="C109">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D109">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E109">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F109">
-        <v>0.92</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>147</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5295,25 +5193,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1264367816091954</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="C110">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D110">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E110">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5321,25 +5219,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1263736263736264</v>
+        <v>0.1289592760180996</v>
       </c>
       <c r="C111">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D111">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E111">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="F111">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>159</v>
+        <v>385</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5347,13 +5245,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1263537906137184</v>
+        <v>0.1227436823104693</v>
       </c>
       <c r="C112">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D112">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E112">
         <v>0.08</v>
@@ -5365,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5373,25 +5271,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.125</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="C113">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D113">
         <v>18</v>
       </c>
       <c r="E113">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5399,25 +5297,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.124203821656051</v>
+        <v>0.1118530884808013</v>
       </c>
       <c r="C114">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D114">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E114">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F114">
-        <v>0.9299999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>275</v>
+        <v>532</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5425,25 +5323,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1176470588235294</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="C115">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D115">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E115">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>390</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5451,25 +5349,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1026252983293556</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="C116">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D116">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E116">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="F116">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>376</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5477,25 +5375,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.09987029831387809</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="C117">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D117">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E117">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="F117">
-        <v>0.77</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>694</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5503,25 +5401,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.09768211920529801</v>
+        <v>0.1037151702786378</v>
       </c>
       <c r="C118">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D118">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E118">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F118">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>545</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5529,25 +5427,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.09761904761904762</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="C119">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D119">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E119">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="F119">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>379</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5555,25 +5453,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.09302325581395349</v>
+        <v>0.09307875894988067</v>
       </c>
       <c r="C120">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D120">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E120">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="F120">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>156</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5581,25 +5479,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.08385093167701864</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C121">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D121">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="E121">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F121">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>590</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5607,25 +5505,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.07109004739336493</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="C122">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D122">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E122">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="F122">
-        <v>0.6799999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>196</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5633,13 +5531,13 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.05846774193548387</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="C123">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D123">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E123">
         <v>0.22</v>
@@ -5651,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>467</v>
+        <v>712</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5659,25 +5557,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.05780346820809248</v>
+        <v>0.07449856733524356</v>
       </c>
       <c r="C124">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D124">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E124">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F124">
-        <v>0.8</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5685,25 +5583,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.05594405594405594</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C125">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D125">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E125">
-        <v>0.43</v>
+        <v>0.11</v>
       </c>
       <c r="F125">
-        <v>0.5700000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>405</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5711,25 +5609,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.05446623093681918</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="C126">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D126">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E126">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
       <c r="F126">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>434</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5737,25 +5635,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.05442176870748299</v>
+        <v>0.06882591093117409</v>
       </c>
       <c r="C127">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D127">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E127">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="F127">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>278</v>
+        <v>460</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5763,25 +5661,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.03432835820895522</v>
+        <v>0.06828193832599119</v>
       </c>
       <c r="C128">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D128">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E128">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="F128">
-        <v>0.51</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>647</v>
+        <v>423</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5789,25 +5687,51 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0256797583081571</v>
+        <v>0.04387990762124711</v>
       </c>
       <c r="C129">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D129">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E129">
-        <v>0.72</v>
+        <v>0.42</v>
       </c>
       <c r="F129">
-        <v>0.28</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>645</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130">
+        <v>0.02976190476190476</v>
+      </c>
+      <c r="C130">
+        <v>20</v>
+      </c>
+      <c r="D130">
+        <v>40</v>
+      </c>
+      <c r="E130">
+        <v>0.5</v>
+      </c>
+      <c r="F130">
+        <v>0.5</v>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
